--- a/2023_D3TI_daftar_mahasiswa.xlsx
+++ b/2023_D3TI_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Python Scripts\Nilai Mahasiswa ver 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6873389-973D-4308-8335-0B66640CBC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F03E0-302C-4CB4-B226-C857CF1ED0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Nama</t>
   </si>
@@ -45,167 +45,125 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ALEKSANDER SALELEUBAJA</t>
-  </si>
-  <si>
     <t>ALI ASALI LAHAGU</t>
   </si>
   <si>
-    <t>ANGELIKA MUTIARA SIAHAAN</t>
-  </si>
-  <si>
-    <t>DEVIANA IRAWATI</t>
+    <t>JOHANNES JONI SIAGIAN</t>
+  </si>
+  <si>
+    <t>SUSANTI</t>
+  </si>
+  <si>
+    <t>JUPRI LEONARDO SILABAN</t>
+  </si>
+  <si>
+    <t>MASUNDUNG SIAHAAN</t>
+  </si>
+  <si>
+    <t>RINDU ANDREAS SIMAMORA</t>
+  </si>
+  <si>
+    <t>RIO GOMGOM PARLUHUTAN SIMAMORA</t>
+  </si>
+  <si>
+    <t>ROBI HAMDANNY</t>
+  </si>
+  <si>
+    <t>ROMMY GUNAWAN SITOMPUL</t>
+  </si>
+  <si>
+    <t>SALMON HASUGIAN</t>
+  </si>
+  <si>
+    <t>SRI NOVITA BUTAR-BUTAR</t>
+  </si>
+  <si>
+    <t>AYU FERTINI HULU</t>
+  </si>
+  <si>
+    <t>DANIEL SILABAN</t>
+  </si>
+  <si>
+    <t>DARIYUNUS NDRURU</t>
+  </si>
+  <si>
+    <t>M. SANI SATIO R HASIBUAN</t>
+  </si>
+  <si>
+    <t>ERNAWATI PANJAITAN</t>
+  </si>
+  <si>
+    <t>huluayu48@gmail.com</t>
+  </si>
+  <si>
+    <t>dariyunusndruru29@gmail.com</t>
+  </si>
+  <si>
+    <t>siagianjohannes01@gmail.com</t>
+  </si>
+  <si>
+    <t>susansanti9401@gmail.com</t>
+  </si>
+  <si>
+    <t>juprisilaban283@gmail.com</t>
+  </si>
+  <si>
+    <t>simamorario13@gmail.com</t>
+  </si>
+  <si>
+    <t>gilangsaragi837@gmail.com</t>
+  </si>
+  <si>
+    <t>salmonhasugian3@gmail.com</t>
+  </si>
+  <si>
+    <t>srinovitabutarbutar270920@gmail.com</t>
+  </si>
+  <si>
+    <t>danielsilaban201@gmail.com</t>
+  </si>
+  <si>
+    <t>msanysatio4@gmail.com</t>
+  </si>
+  <si>
+    <t>ernapanj12@gmail.com</t>
+  </si>
+  <si>
+    <t>ADINDA NOFITRI</t>
+  </si>
+  <si>
+    <t>adindanofitri12@gmail.com</t>
   </si>
   <si>
     <t>DISPLIN ANWAR GULO</t>
   </si>
   <si>
-    <t>GELBOK PANDIANGAN</t>
-  </si>
-  <si>
-    <t>HANDIKA COVANDER SIMORANGKIR</t>
-  </si>
-  <si>
-    <t>IRA RISWANA SITOMPUL</t>
-  </si>
-  <si>
-    <t>JOHANNES JONI SIAGIAN</t>
-  </si>
-  <si>
-    <t>JONATAN FILEMON LUMBANRAJA</t>
-  </si>
-  <si>
-    <t>SUSANTI</t>
-  </si>
-  <si>
-    <t>JUPRI LEONARDO SILABAN</t>
-  </si>
-  <si>
-    <t>KRISTINA WATI SILABAN</t>
-  </si>
-  <si>
-    <t>MARIANA KAJAH BASE ANAKAMPUN</t>
-  </si>
-  <si>
-    <t>MASUNDUNG SIAHAAN</t>
+    <t>displinanwarg@gmail.com</t>
   </si>
   <si>
     <t>MUHAMMAD ZARKASIH</t>
   </si>
   <si>
-    <t>PUTRI SONARIA DAMANIK</t>
-  </si>
-  <si>
-    <t>RANTI GINA OKTAVIA SARUKSUK</t>
-  </si>
-  <si>
-    <t>RINDU ANDREAS SIMAMORA</t>
-  </si>
-  <si>
-    <t>RIO GOMGOM PARLUHUTAN SIMAMORA</t>
-  </si>
-  <si>
-    <t>ROBI HAMDANNY</t>
-  </si>
-  <si>
-    <t>ROMAGANDA GULTOM</t>
-  </si>
-  <si>
-    <t>ROMMY GUNAWAN SITOMPUL</t>
-  </si>
-  <si>
-    <t>SALMON HASUGIAN</t>
-  </si>
-  <si>
-    <t>SRI NOVITA BUTAR-BUTAR</t>
-  </si>
-  <si>
-    <t>VERAWATI HOPMIDA MANURUNG</t>
-  </si>
-  <si>
-    <t>ELDA SIHOMBING</t>
-  </si>
-  <si>
-    <t>ASDA KURNIA</t>
-  </si>
-  <si>
-    <t>AYU FERTINI HULU</t>
-  </si>
-  <si>
-    <t>DANIEL SILABAN</t>
-  </si>
-  <si>
-    <t>DARIYUNUS NDRURU</t>
-  </si>
-  <si>
-    <t>M. SANI SATIO R HASIBUAN</t>
-  </si>
-  <si>
-    <t>RAIHAN SILABAN</t>
-  </si>
-  <si>
-    <t>ERNAWATI PANJAITAN</t>
-  </si>
-  <si>
-    <t>lex251202@gmail.com</t>
-  </si>
-  <si>
-    <t>huluayu48@gmail.com</t>
-  </si>
-  <si>
-    <t>dariyunusndruru29@gmail.com</t>
-  </si>
-  <si>
-    <t>displinanwarg@gmail.com</t>
-  </si>
-  <si>
-    <t>siagianjohannes01@gmail.com</t>
-  </si>
-  <si>
-    <t>susansanti9401@gmail.com</t>
-  </si>
-  <si>
-    <t>juprisilaban283@gmail.com</t>
+    <t>muhammadzarkasih627@gmail.com</t>
   </si>
   <si>
     <t>zarkasihmuhammad786@gmail.com</t>
   </si>
   <si>
-    <t>muhammadzarkasih627@gmail.com</t>
-  </si>
-  <si>
-    <t>simamorario13@gmail.com</t>
-  </si>
-  <si>
-    <t>gilangsaragi837@gmail.com</t>
-  </si>
-  <si>
-    <t>salmonhasugian3@gmail.com</t>
-  </si>
-  <si>
-    <t>srinovitabutarbutar270920@gmail.com</t>
-  </si>
-  <si>
-    <t>danielsilaban201@gmail.com</t>
-  </si>
-  <si>
-    <t>msanysatio4@gmail.com</t>
-  </si>
-  <si>
-    <t>ernapanj12@gmail.com</t>
-  </si>
-  <si>
     <t>RAIHAN SIREGAR</t>
   </si>
   <si>
     <t>rehansiregar821@gmail.com</t>
+  </si>
+  <si>
+    <t>sellyzllahagu@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -213,6 +171,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -237,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,231 +209,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -834,10 +579,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -869,37 +614,43 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>202302001</v>
+        <v>202302002</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>IF(C2=C3,A2,A2+1)</f>
+        <f t="shared" ref="A3:A22" si="0">IF(B2=B3,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <v>202302002</v>
+        <v>202302005</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A37" si="0">IF(C3=C4,A3,A3+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4">
-        <v>202302003</v>
+        <v>202302009</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -908,10 +659,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>202302004</v>
+        <v>202302011</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -920,13 +674,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>202302005</v>
+        <v>202302012</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -935,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>202302006</v>
+        <v>202302015</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -947,130 +701,142 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>202302007</v>
+        <v>202302016</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>202302008</v>
+        <v>202302016</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>202302019</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10">
-        <v>202302009</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>202302020</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>202302010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>202302021</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>202302011</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>202302023</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13">
-        <v>202302012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>202302024</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>202302013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="D14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>202302025</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>202302014</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="D15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>202302029</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>202302015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>202302030</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>202302016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1079,13 +845,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>202302016</v>
+        <v>202302031</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1094,10 +860,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>202302017</v>
+        <v>202302032</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1106,10 +875,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>202302018</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
+        <v>202302033</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1118,10 +890,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>202302019</v>
+        <v>202302034</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1130,230 +905,41 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>202302020</v>
+        <v>202302035</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>202302021</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>202302022</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>202302023</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>202302024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>202302025</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>202302026</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>202302027</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>202302028</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>202302029</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>202302030</v>
-      </c>
-      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>202302031</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>202302032</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>202302033</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>202302034</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1019,6 @@
     <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1448,6 +1033,7 @@
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2294,68 +1880,50 @@
     <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B41:C163 B38:B40">
-    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
+  <conditionalFormatting sqref="B26:C148 B23:B25">
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:D40">
-    <cfRule type="duplicateValues" dxfId="34" priority="87"/>
+  <conditionalFormatting sqref="C23:D25">
+    <cfRule type="duplicateValues" dxfId="12" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H28:H53">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="H16:H38">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C15 B18:C21 B22:B23">
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+  <conditionalFormatting sqref="B11:B12 B10:C10 B2:C6">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C17">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  <conditionalFormatting sqref="B7:C9">
+    <cfRule type="duplicateValues" dxfId="8" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B37">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+  <conditionalFormatting sqref="B2:C9">
+    <cfRule type="duplicateValues" dxfId="5" priority="242"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C19">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+  <conditionalFormatting sqref="D2:D9">
+    <cfRule type="duplicateValues" dxfId="4" priority="245"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C37">
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+  <conditionalFormatting sqref="B13:B22">
+    <cfRule type="duplicateValues" dxfId="3" priority="284"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D19">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+  <conditionalFormatting sqref="C2:C22">
+    <cfRule type="duplicateValues" dxfId="2" priority="286"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D37">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+  <conditionalFormatting sqref="D2:D22">
+    <cfRule type="duplicateValues" dxfId="1" priority="288"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:C85">
+    <cfRule type="duplicateValues" dxfId="0" priority="290"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023_D3TI_daftar_mahasiswa.xlsx
+++ b/2023_D3TI_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\My Python Project\match-googleclassroom-grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18F03E0-302C-4CB4-B226-C857CF1ED0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A08EE-4793-4706-B585-8843A13F45E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Nama</t>
   </si>
@@ -157,6 +157,81 @@
   </si>
   <si>
     <t>sellyzllahagu@gmail.com</t>
+  </si>
+  <si>
+    <t>aliasalilhgu2801@gmail.com</t>
+  </si>
+  <si>
+    <t>ALEKSANDER SALELEUBAJA</t>
+  </si>
+  <si>
+    <t>alexandersaleleubaja357@gmail.com</t>
+  </si>
+  <si>
+    <t>ANGELIKA MUTIARA SIAHAAN</t>
+  </si>
+  <si>
+    <t>angelicasiahaan2024@gmail.com</t>
+  </si>
+  <si>
+    <t>ASDA KURNIA</t>
+  </si>
+  <si>
+    <t>asdakurnia6@gmail.com</t>
+  </si>
+  <si>
+    <t>GELBOK PANDIANGAN</t>
+  </si>
+  <si>
+    <t>gelbokpandiangan33@gmail.com</t>
+  </si>
+  <si>
+    <t>gelbokpandianganpandiangan@gmail.com</t>
+  </si>
+  <si>
+    <t>IRA RISWANA SITOMPUL</t>
+  </si>
+  <si>
+    <t>irariswana2828@gmail.com</t>
+  </si>
+  <si>
+    <t>JONATAN FILEMON LUMBANRAJA</t>
+  </si>
+  <si>
+    <t>filemonjonatan@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIANA KAJAH BASE ANAKAMPUN</t>
+  </si>
+  <si>
+    <t>marianakajahbase98@gmail.com</t>
+  </si>
+  <si>
+    <t>PUTRI SONARIA DAMANIK</t>
+  </si>
+  <si>
+    <t>putridamanik1603@gmail.com</t>
+  </si>
+  <si>
+    <t>RANTI GINA OKTAVIA SARUKSUK</t>
+  </si>
+  <si>
+    <t>rantisaruksuk87@gmail.com</t>
+  </si>
+  <si>
+    <t>r18624820@gmail.com</t>
+  </si>
+  <si>
+    <t>ROMAGANDA GULTOM</t>
+  </si>
+  <si>
+    <t>romagandagultom050504@gmail.com</t>
+  </si>
+  <si>
+    <t>VERAWATI HOPMIDA MANURUNG</t>
+  </si>
+  <si>
+    <t>vmanurung669@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -201,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -210,11 +285,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -579,10 +687,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E989"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -610,336 +718,533 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>202302001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>IF(B2=B3,A2,A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>202302002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" ref="A3:A22" si="0">IF(B2=B3,A2,A2+1)</f>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A36" si="0">IF(B3=B4,A3,A3+1)</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>202302002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>202302003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>202302005</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>202302006</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>202302006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>202302008</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>202302009</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>202302010</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>202302011</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>202302012</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>202302014</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>202302015</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>202302016</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17">
         <v>202302016</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>202302017</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>202302018</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>202302018</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B21">
         <v>202302019</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B22">
         <v>202302020</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B23">
         <v>202302021</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>202302022</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B25">
         <v>202302023</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B26">
         <v>202302024</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B27">
         <v>202302025</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>202302026</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>202302028</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B30">
         <v>202302029</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B31">
         <v>202302030</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B32">
         <v>202302031</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B33">
         <v>202302032</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B34">
         <v>202302033</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="0"/>
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>202302034</v>
+      </c>
+      <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>202302034</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B36">
         <v>202302035</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1019,6 +1324,7 @@
     <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1338,6 @@
     <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1880,50 +2185,73 @@
     <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B26:C148 B23:B25">
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21 B3:C6 B10:C10 B7:B9 B12:C13 B11 B14 B22:B24">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B36">
+    <cfRule type="duplicateValues" dxfId="15" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C6 B10:C10 B7:B9 B12:C13 B11 B15:C17 B14 B18:B20">
+    <cfRule type="duplicateValues" dxfId="14" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C6 B30:C99 B10:C10 B7:B9 B12:C13 B11 B15:C17 B14 B21:C23 B18:B20 B25:C27 B24 B28:B29">
+    <cfRule type="duplicateValues" dxfId="13" priority="296"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C17 B18:B20">
+    <cfRule type="duplicateValues" dxfId="12" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:C162 B37:B39">
+    <cfRule type="duplicateValues" dxfId="9" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D25">
-    <cfRule type="duplicateValues" dxfId="12" priority="87"/>
+  <conditionalFormatting sqref="C3:C6 C30:C36 C10 C12:C13 C15:C17 C21:C23 C25:C27">
+    <cfRule type="duplicateValues" dxfId="7" priority="292"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H38">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="greaterThan">
+  <conditionalFormatting sqref="C37:D39">
+    <cfRule type="duplicateValues" dxfId="6" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D20">
+    <cfRule type="duplicateValues" dxfId="5" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D36">
+    <cfRule type="duplicateValues" dxfId="4" priority="294"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H52">
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12 B10:C10 B2:C6">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C9">
-    <cfRule type="duplicateValues" dxfId="8" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C9">
-    <cfRule type="duplicateValues" dxfId="5" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D9">
-    <cfRule type="duplicateValues" dxfId="4" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B22">
-    <cfRule type="duplicateValues" dxfId="3" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="duplicateValues" dxfId="2" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D22">
-    <cfRule type="duplicateValues" dxfId="1" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C85">
-    <cfRule type="duplicateValues" dxfId="0" priority="290"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
